--- a/biology/Médecine/Dry_January/Dry_January.xlsx
+++ b/biology/Médecine/Dry_January/Dry_January.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dry January (littéralement janvier sec), ou « janvier sobre », « mois sans alcool », est une campagne de santé publique incitant à l'abstinence de consommation d'alcool après la soirée du jour de l'an et durant tout le mois de janvier.
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La campagne en tant que telle semble être relativement récente, et a été décrite en 2014 comme ayant « surgi ces dernières années »[1]. Cependant, le gouvernement finlandais avait lancé, en 1942, une campagne appelée « Sober January », dans le cadre de son effort de guerre[2]. L'expression « Dry January » est enregistrée en tant que marque pour certains biens et services par l'organisme de bienfaisance Alcohol Concern (en) en avril 2014[3]. La première campagne de Dry January pour Alcohol Concern a lieu en janvier 2013[4]. Alcohol Concern s'est ensuite associé pour la première fois à Public Health England pour la campagne de janvier 2015[5].
-Plus de 17 000 Britanniques ont cessé de boire en janvier 2014, selon l'Alcohol Concern, organisateur de la campagne[6]. Une étude réalisée en 2014 par l'Université de Sussex montre que, six mois après janvier 2014, sur 900 participants interrogés, 72 % avaient « réduit les épisodes de consommation nocive d'alcool », et 4 % ne buvaient toujours pas[7],[8].
-À partir de janvier 2020, une campagne similaire, sous l'appellation Défi de janvier, est lancée en France par des associations comme la Société française d'alcoologie, l'Association Addictions France, la Fédération française d'addictologie, la Ligue nationale contre le cancer et la Fédération addiction[9]. L'action ne reçoit pas de soutien des pouvoirs publics[10], dans un contexte d'opposition forte de l'industrie viticole[11],[12], de lobbies[13], du ministre de l'Agriculture[14],[15] et même du président de la République, Emmanuel Macron[16]. En revanche, quelques sites français sont créés depuis afin d’inciter les Français à s’essayer au mois sans alcool, à l’exemple du site du même nom.
-Pour le médecin addictologue Michel Reynaud, « le danger principal d’un Dry January pour la viticulture, c’est qu’il dénormalise la consommation d’alcool et que les gens se rendent compte qu’on peut être bien sans systématiquement boire ». Selon Santé publique France, 41 000 décès peuvent être imputés, chaque année, à la consommation d'alcool en France[17]. Un peu plus de 10 % de la population française indique tenter l'expérience du « défi de janvier » en 2021[9], 24 % en 2022[18].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La campagne en tant que telle semble être relativement récente, et a été décrite en 2014 comme ayant « surgi ces dernières années ». Cependant, le gouvernement finlandais avait lancé, en 1942, une campagne appelée « Sober January », dans le cadre de son effort de guerre. L'expression « Dry January » est enregistrée en tant que marque pour certains biens et services par l'organisme de bienfaisance Alcohol Concern (en) en avril 2014. La première campagne de Dry January pour Alcohol Concern a lieu en janvier 2013. Alcohol Concern s'est ensuite associé pour la première fois à Public Health England pour la campagne de janvier 2015.
+Plus de 17 000 Britanniques ont cessé de boire en janvier 2014, selon l'Alcohol Concern, organisateur de la campagne. Une étude réalisée en 2014 par l'Université de Sussex montre que, six mois après janvier 2014, sur 900 participants interrogés, 72 % avaient « réduit les épisodes de consommation nocive d'alcool », et 4 % ne buvaient toujours pas,.
+À partir de janvier 2020, une campagne similaire, sous l'appellation Défi de janvier, est lancée en France par des associations comme la Société française d'alcoologie, l'Association Addictions France, la Fédération française d'addictologie, la Ligue nationale contre le cancer et la Fédération addiction. L'action ne reçoit pas de soutien des pouvoirs publics, dans un contexte d'opposition forte de l'industrie viticole de lobbies, du ministre de l'Agriculture, et même du président de la République, Emmanuel Macron. En revanche, quelques sites français sont créés depuis afin d’inciter les Français à s’essayer au mois sans alcool, à l’exemple du site du même nom.
+Pour le médecin addictologue Michel Reynaud, « le danger principal d’un Dry January pour la viticulture, c’est qu’il dénormalise la consommation d’alcool et que les gens se rendent compte qu’on peut être bien sans systématiquement boire ». Selon Santé publique France, 41 000 décès peuvent être imputés, chaque année, à la consommation d'alcool en France. Un peu plus de 10 % de la population française indique tenter l'expérience du « défi de janvier » en 2021, 24 % en 2022.
 Dans les autres pays francophones, des sites existent aussi pour aider les citoyens à se passer d'alcool durant le mois de janvier, pour la Suisse et le Canada, et pendant le mois de février pour la Belgique, avec ce que les Belges appellent avec humour la « tournée minérale ».
 </t>
         </is>
@@ -548,9 +562,11 @@
           <t>Effets du Dry January</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La campagne britannique permet d'étudier les effets du Dry January sur plusieurs millions de personnes. Ainsi, la santé générale des individus s'améliore, mais aussi le sommeil ou encore la peau. Des pertes de poids sont également observées[19].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La campagne britannique permet d'étudier les effets du Dry January sur plusieurs millions de personnes. Ainsi, la santé générale des individus s'améliore, mais aussi le sommeil ou encore la peau. Des pertes de poids sont également observées.
 </t>
         </is>
       </c>
